--- a/data/pca/factorExposure/factorExposure_2010-04-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-15.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01503343345041765</v>
+        <v>-0.01715794037249599</v>
       </c>
       <c r="C2">
-        <v>-0.002794200402680066</v>
+        <v>0.001079636584667737</v>
       </c>
       <c r="D2">
-        <v>-0.01089813610059865</v>
+        <v>-0.008071332083136691</v>
       </c>
       <c r="E2">
-        <v>-0.009084340772390311</v>
+        <v>-0.0003889294645813256</v>
       </c>
       <c r="F2">
-        <v>-0.02119193569007502</v>
+        <v>0.01054030545388694</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1158820093136204</v>
+        <v>-0.09316215081011228</v>
       </c>
       <c r="C4">
-        <v>0.06346689502295237</v>
+        <v>0.01665207473582409</v>
       </c>
       <c r="D4">
-        <v>-0.06244642207256384</v>
+        <v>-0.08385776953232704</v>
       </c>
       <c r="E4">
-        <v>0.01054220905325722</v>
+        <v>0.03066485157419082</v>
       </c>
       <c r="F4">
-        <v>-0.0223847297933151</v>
+        <v>-0.03193623521748974</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1234153963316011</v>
+        <v>-0.1535402702449568</v>
       </c>
       <c r="C6">
-        <v>0.01621262404906366</v>
+        <v>0.02448614003995925</v>
       </c>
       <c r="D6">
-        <v>-0.03697245984608444</v>
+        <v>0.02215951815055253</v>
       </c>
       <c r="E6">
-        <v>-0.0288736354639814</v>
+        <v>0.009099869699446626</v>
       </c>
       <c r="F6">
-        <v>0.0523715871326397</v>
+        <v>-0.04398487560007529</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06599138693348461</v>
+        <v>-0.05932514137207179</v>
       </c>
       <c r="C7">
-        <v>0.0400382915347855</v>
+        <v>-0.0006201554935831941</v>
       </c>
       <c r="D7">
-        <v>-0.07792418716066106</v>
+        <v>-0.05238187522162105</v>
       </c>
       <c r="E7">
-        <v>-0.02233647551237115</v>
+        <v>0.01504801391743638</v>
       </c>
       <c r="F7">
-        <v>-0.04827294145264639</v>
+        <v>-0.05166142589736195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05375836564682348</v>
+        <v>-0.05840120229891495</v>
       </c>
       <c r="C8">
-        <v>0.02884798664532536</v>
+        <v>-0.0127797695542153</v>
       </c>
       <c r="D8">
-        <v>-0.0527741547861547</v>
+        <v>-0.03128158261722827</v>
       </c>
       <c r="E8">
-        <v>0.01320974683252186</v>
+        <v>0.01546037818244629</v>
       </c>
       <c r="F8">
-        <v>0.007633165026675759</v>
+        <v>0.02930446967346862</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07867980079535439</v>
+        <v>-0.07106385317417378</v>
       </c>
       <c r="C9">
-        <v>0.04044592160975807</v>
+        <v>0.01273745071770825</v>
       </c>
       <c r="D9">
-        <v>-0.04849165840711258</v>
+        <v>-0.08325695240665419</v>
       </c>
       <c r="E9">
-        <v>0.01937082605565306</v>
+        <v>0.02523586088160466</v>
       </c>
       <c r="F9">
-        <v>-0.01876405627367099</v>
+        <v>-0.05402905161710577</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1202493093765274</v>
+        <v>-0.094667109121156</v>
       </c>
       <c r="C10">
-        <v>-0.1346182526395822</v>
+        <v>0.0170497404580125</v>
       </c>
       <c r="D10">
-        <v>0.08951326209933314</v>
+        <v>0.1710616468403566</v>
       </c>
       <c r="E10">
-        <v>-0.02060118774460032</v>
+        <v>-0.03941031774433759</v>
       </c>
       <c r="F10">
-        <v>-0.02530746705098158</v>
+        <v>0.05299937167582976</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07524926410559772</v>
+        <v>-0.08756185469274104</v>
       </c>
       <c r="C11">
-        <v>0.03315581497195688</v>
+        <v>0.01208238514197752</v>
       </c>
       <c r="D11">
-        <v>-0.07434952090083613</v>
+        <v>-0.1144964026882145</v>
       </c>
       <c r="E11">
-        <v>0.02490587230822348</v>
+        <v>0.04917362781089972</v>
       </c>
       <c r="F11">
-        <v>-0.009442853024613914</v>
+        <v>-0.02036902307417215</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07155041604046068</v>
+        <v>-0.09222483795448505</v>
       </c>
       <c r="C12">
-        <v>0.03043966298237986</v>
+        <v>0.00996214621207645</v>
       </c>
       <c r="D12">
-        <v>-0.07725905108116719</v>
+        <v>-0.1225408584668823</v>
       </c>
       <c r="E12">
-        <v>0.06227376374821059</v>
+        <v>0.0481891632942008</v>
       </c>
       <c r="F12">
-        <v>-0.03293693758474365</v>
+        <v>-0.02042906734395948</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02891034678323705</v>
+        <v>-0.04277993757311759</v>
       </c>
       <c r="C13">
-        <v>0.02023242880619203</v>
+        <v>0.003894929598582946</v>
       </c>
       <c r="D13">
-        <v>-0.02124618494299632</v>
+        <v>-0.04765513811842078</v>
       </c>
       <c r="E13">
-        <v>-0.0221985128978998</v>
+        <v>-0.01108451356888429</v>
       </c>
       <c r="F13">
-        <v>-0.01458847410127145</v>
+        <v>-0.01372387049230576</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03857876800642956</v>
+        <v>-0.02225740842106295</v>
       </c>
       <c r="C14">
-        <v>0.02303962980500497</v>
+        <v>0.0143502576455788</v>
       </c>
       <c r="D14">
-        <v>-0.02214297458809816</v>
+        <v>-0.0323981662767619</v>
       </c>
       <c r="E14">
-        <v>0.02301095059204341</v>
+        <v>0.0190652092253736</v>
       </c>
       <c r="F14">
-        <v>-0.008389825251689581</v>
+        <v>-0.01970207226776012</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01578507633376982</v>
+        <v>-0.03153313093734322</v>
       </c>
       <c r="C15">
-        <v>0.01072685994485085</v>
+        <v>0.005593942441526382</v>
       </c>
       <c r="D15">
-        <v>-0.008505027511164137</v>
+        <v>-0.045141298986893</v>
       </c>
       <c r="E15">
-        <v>-0.0425962887986092</v>
+        <v>0.008883593494820348</v>
       </c>
       <c r="F15">
-        <v>-0.01739882349165213</v>
+        <v>-0.0303612582003149</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0800277316809427</v>
+        <v>-0.07353949203495463</v>
       </c>
       <c r="C16">
-        <v>0.02494262412930175</v>
+        <v>0.003683952379620395</v>
       </c>
       <c r="D16">
-        <v>-0.07911958372982332</v>
+        <v>-0.1172017997714079</v>
       </c>
       <c r="E16">
-        <v>0.0417478453778043</v>
+        <v>0.06353459085282767</v>
       </c>
       <c r="F16">
-        <v>-0.007462899451518166</v>
+        <v>-0.02894916493998652</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02308580119038975</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003553305918377451</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01897099131919387</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.009089488093695829</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01747825261567394</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04817991719524654</v>
+        <v>-0.06105363499723142</v>
       </c>
       <c r="C20">
-        <v>0.05165309747478081</v>
+        <v>0.00147958608985204</v>
       </c>
       <c r="D20">
-        <v>-0.01223508871949874</v>
+        <v>-0.07442253801752</v>
       </c>
       <c r="E20">
-        <v>-0.02045213713158345</v>
+        <v>0.05614824479602305</v>
       </c>
       <c r="F20">
-        <v>-0.02236568035141182</v>
+        <v>-0.02826301661358088</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02888287295385912</v>
+        <v>-0.03883132183946433</v>
       </c>
       <c r="C21">
-        <v>0.02376537998713485</v>
+        <v>0.007207103045810735</v>
       </c>
       <c r="D21">
-        <v>0.007632969682970911</v>
+        <v>-0.0375447335788002</v>
       </c>
       <c r="E21">
-        <v>0.01663515721767741</v>
+        <v>-0.007569554057826595</v>
       </c>
       <c r="F21">
-        <v>0.00968714748949919</v>
+        <v>0.01958762577694324</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.0293927501047783</v>
+        <v>-0.04212558410013697</v>
       </c>
       <c r="C22">
-        <v>-0.005562076604004127</v>
+        <v>0.0004053692403373697</v>
       </c>
       <c r="D22">
-        <v>-0.00628171382163188</v>
+        <v>-0.002891666212689568</v>
       </c>
       <c r="E22">
-        <v>-0.6171243895016054</v>
+        <v>0.03003872207227794</v>
       </c>
       <c r="F22">
-        <v>-0.1445146465557413</v>
+        <v>0.009276176908101712</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0296643535867721</v>
+        <v>-0.04218548265406376</v>
       </c>
       <c r="C23">
-        <v>-0.005487841276044442</v>
+        <v>0.0004297513908428133</v>
       </c>
       <c r="D23">
-        <v>-0.008207296698550474</v>
+        <v>-0.003013322275472882</v>
       </c>
       <c r="E23">
-        <v>-0.6201718029393819</v>
+        <v>0.03039027888116939</v>
       </c>
       <c r="F23">
-        <v>-0.1439776835496241</v>
+        <v>0.008813402399105493</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08039168726927877</v>
+        <v>-0.07999961811090164</v>
       </c>
       <c r="C24">
-        <v>0.04040166539683484</v>
+        <v>0.003920172511288077</v>
       </c>
       <c r="D24">
-        <v>-0.06184588382071714</v>
+        <v>-0.1181236439047121</v>
       </c>
       <c r="E24">
-        <v>0.03899491328482211</v>
+        <v>0.05123838381880983</v>
       </c>
       <c r="F24">
-        <v>-0.01438849314768474</v>
+        <v>-0.02221108142434504</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08628323721787549</v>
+        <v>-0.08481123489655941</v>
       </c>
       <c r="C25">
-        <v>0.03041511297125923</v>
+        <v>0.005942600104530465</v>
       </c>
       <c r="D25">
-        <v>-0.07549066209456982</v>
+        <v>-0.1064780982770308</v>
       </c>
       <c r="E25">
-        <v>0.06516814571136774</v>
+        <v>0.0345779692291861</v>
       </c>
       <c r="F25">
-        <v>-0.02690663870233135</v>
+        <v>-0.02966216095513097</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04125601845981486</v>
+        <v>-0.05470496640111583</v>
       </c>
       <c r="C26">
-        <v>0.003145945695183215</v>
+        <v>0.01516854001476075</v>
       </c>
       <c r="D26">
-        <v>0.009696518658339863</v>
+        <v>-0.03736651592582782</v>
       </c>
       <c r="E26">
-        <v>-0.01389791434752421</v>
+        <v>0.02785480806007422</v>
       </c>
       <c r="F26">
-        <v>0.01876411487812893</v>
+        <v>0.01278014427886691</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1409766190489889</v>
+        <v>-0.1431170028185744</v>
       </c>
       <c r="C28">
-        <v>-0.2637850821870154</v>
+        <v>0.0152196859662581</v>
       </c>
       <c r="D28">
-        <v>0.1299812915575047</v>
+        <v>0.2667309565225405</v>
       </c>
       <c r="E28">
-        <v>0.01079366772224261</v>
+        <v>-0.06911727598678075</v>
       </c>
       <c r="F28">
-        <v>0.03762521005649734</v>
+        <v>-0.02878375291035882</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03284145712272406</v>
+        <v>-0.02716220249340728</v>
       </c>
       <c r="C29">
-        <v>0.009730144527370952</v>
+        <v>0.008710422982568487</v>
       </c>
       <c r="D29">
-        <v>-0.02619601854550147</v>
+        <v>-0.03116325992166159</v>
       </c>
       <c r="E29">
-        <v>0.03402151591650208</v>
+        <v>0.01194718427131088</v>
       </c>
       <c r="F29">
-        <v>-0.04658162448603616</v>
+        <v>0.01169608293064846</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09848910093956154</v>
+        <v>-0.06313295526241283</v>
       </c>
       <c r="C30">
-        <v>0.04560072255950865</v>
+        <v>0.005104872656858794</v>
       </c>
       <c r="D30">
-        <v>-0.1052033952985402</v>
+        <v>-0.08501954984473897</v>
       </c>
       <c r="E30">
-        <v>0.04819560828464192</v>
+        <v>0.02506848581684241</v>
       </c>
       <c r="F30">
-        <v>0.03659852636847085</v>
+        <v>-0.1051526677541732</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02922183637707048</v>
+        <v>-0.04831528301992769</v>
       </c>
       <c r="C31">
-        <v>0.03488488811767024</v>
+        <v>0.01502178060545855</v>
       </c>
       <c r="D31">
-        <v>-0.02317228544691769</v>
+        <v>-0.028322253130829</v>
       </c>
       <c r="E31">
-        <v>0.001155908763054667</v>
+        <v>0.02710347965333229</v>
       </c>
       <c r="F31">
-        <v>-0.01708193662950088</v>
+        <v>0.004396440992453578</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0570414910433386</v>
+        <v>-0.04784591111580876</v>
       </c>
       <c r="C32">
-        <v>0.02527238365684542</v>
+        <v>4.146517615533673e-06</v>
       </c>
       <c r="D32">
-        <v>-0.002564187773997684</v>
+        <v>-0.03110419377005811</v>
       </c>
       <c r="E32">
-        <v>0.07408688147001175</v>
+        <v>0.02971602886792726</v>
       </c>
       <c r="F32">
-        <v>0.06826392034037178</v>
+        <v>-0.001864516300873475</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08601187592901104</v>
+        <v>-0.09027363418293063</v>
       </c>
       <c r="C33">
-        <v>0.01369917409804266</v>
+        <v>0.009271160370742873</v>
       </c>
       <c r="D33">
-        <v>-0.09649955395256576</v>
+        <v>-0.09388342378191727</v>
       </c>
       <c r="E33">
-        <v>0.02561972420710463</v>
+        <v>0.04749408017394631</v>
       </c>
       <c r="F33">
-        <v>-0.01766539574851519</v>
+        <v>-0.04166789539327796</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06733735945301567</v>
+        <v>-0.06754308245277692</v>
       </c>
       <c r="C34">
-        <v>0.02190815002391016</v>
+        <v>0.01228304969073267</v>
       </c>
       <c r="D34">
-        <v>-0.0563809366282736</v>
+        <v>-0.09896409712456133</v>
       </c>
       <c r="E34">
-        <v>0.03787103949243567</v>
+        <v>0.03578676339739085</v>
       </c>
       <c r="F34">
-        <v>-0.02020931302288438</v>
+        <v>-0.03991087008211609</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.009808037336916453</v>
+        <v>-0.02434098659985996</v>
       </c>
       <c r="C35">
-        <v>0.006826590385140156</v>
+        <v>0.002428024560662523</v>
       </c>
       <c r="D35">
-        <v>-0.01833289281123504</v>
+        <v>-0.01199788778002644</v>
       </c>
       <c r="E35">
-        <v>-0.0002618521526881335</v>
+        <v>0.01125486967960664</v>
       </c>
       <c r="F35">
-        <v>-0.02184431745616313</v>
+        <v>-0.008896177845679306</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02527197673185787</v>
+        <v>-0.02438046483213812</v>
       </c>
       <c r="C36">
-        <v>0.009995410746188135</v>
+        <v>0.007282550444645641</v>
       </c>
       <c r="D36">
-        <v>-0.01576760498316312</v>
+        <v>-0.03763331979564405</v>
       </c>
       <c r="E36">
-        <v>-0.006603263994580584</v>
+        <v>0.01791168635172351</v>
       </c>
       <c r="F36">
-        <v>0.002984932721264398</v>
+        <v>-0.01263771915055917</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.007921248274379377</v>
+        <v>-0.001535813113434028</v>
       </c>
       <c r="C38">
-        <v>0.008268030343430053</v>
+        <v>0.0002438856456873344</v>
       </c>
       <c r="D38">
-        <v>-0.01215209379284097</v>
+        <v>-0.001228276644809836</v>
       </c>
       <c r="E38">
-        <v>-0.01881492712882058</v>
+        <v>0.001390521910661004</v>
       </c>
       <c r="F38">
-        <v>-0.03432289989716652</v>
+        <v>0.001007047436443621</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.113972742660137</v>
+        <v>-0.1083950327119193</v>
       </c>
       <c r="C39">
-        <v>0.04571145967937829</v>
+        <v>0.01751324333061726</v>
       </c>
       <c r="D39">
-        <v>-0.1302208092069844</v>
+        <v>-0.1537451950489197</v>
       </c>
       <c r="E39">
-        <v>0.143869483112726</v>
+        <v>0.06135083133713996</v>
       </c>
       <c r="F39">
-        <v>-0.0305904617855631</v>
+        <v>-0.026805336427594</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.008284647380280834</v>
+        <v>-0.03714904949280094</v>
       </c>
       <c r="C40">
-        <v>0.05005734111981704</v>
+        <v>0.007358885888972153</v>
       </c>
       <c r="D40">
-        <v>-0.01937862228014465</v>
+        <v>-0.0317134396533734</v>
       </c>
       <c r="E40">
-        <v>-0.06167481842095174</v>
+        <v>0.003388901666321224</v>
       </c>
       <c r="F40">
-        <v>-0.05628130886097273</v>
+        <v>0.01298526476463504</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02770680936554784</v>
+        <v>-0.02636695112722933</v>
       </c>
       <c r="C41">
-        <v>0.01204716926855018</v>
+        <v>0.006710472064480381</v>
       </c>
       <c r="D41">
-        <v>-0.009865743206195198</v>
+        <v>-0.01118659006444786</v>
       </c>
       <c r="E41">
-        <v>0.007620422224550532</v>
+        <v>0.01282547176759914</v>
       </c>
       <c r="F41">
-        <v>-0.01603050951581179</v>
+        <v>0.008853020492607533</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03771731577644069</v>
+        <v>-0.0407504742631441</v>
       </c>
       <c r="C43">
-        <v>-0.0009042972261180272</v>
+        <v>0.006864165839909711</v>
       </c>
       <c r="D43">
-        <v>-0.02932266116752136</v>
+        <v>-0.02106733420103436</v>
       </c>
       <c r="E43">
-        <v>0.002343901934342711</v>
+        <v>0.02486849208966958</v>
       </c>
       <c r="F43">
-        <v>-0.008786576321643761</v>
+        <v>0.01259622413527841</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1137751969141007</v>
+        <v>-0.07564321041713143</v>
       </c>
       <c r="C44">
-        <v>0.07664438573370527</v>
+        <v>0.02219814376057415</v>
       </c>
       <c r="D44">
-        <v>-0.1601235116470114</v>
+        <v>-0.09585586733243065</v>
       </c>
       <c r="E44">
-        <v>-0.1058692720827874</v>
+        <v>0.07671691966494712</v>
       </c>
       <c r="F44">
-        <v>-0.129003677758807</v>
+        <v>-0.1870695306297459</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02150613699084001</v>
+        <v>-0.0220451317060493</v>
       </c>
       <c r="C46">
-        <v>-0.01659340745293974</v>
+        <v>0.003731322294827337</v>
       </c>
       <c r="D46">
-        <v>-0.02192110403851862</v>
+        <v>-0.01271847877715023</v>
       </c>
       <c r="E46">
-        <v>-0.0247376848120122</v>
+        <v>0.0237857703769636</v>
       </c>
       <c r="F46">
-        <v>-0.03598135589908465</v>
+        <v>-0.001006128656493296</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03746724170425739</v>
+        <v>-0.05191355609020593</v>
       </c>
       <c r="C47">
-        <v>0.02098328465679334</v>
+        <v>0.00329746393714217</v>
       </c>
       <c r="D47">
-        <v>-0.01892701248133233</v>
+        <v>-0.01289950830932158</v>
       </c>
       <c r="E47">
-        <v>0.008838858055851538</v>
+        <v>0.02228060402092687</v>
       </c>
       <c r="F47">
-        <v>-0.007958231627892175</v>
+        <v>0.04480004620070734</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04168420755903392</v>
+        <v>-0.04768656876891527</v>
       </c>
       <c r="C48">
-        <v>0.01022115073938488</v>
+        <v>0.003034910319756083</v>
       </c>
       <c r="D48">
-        <v>-0.01284528423057366</v>
+        <v>-0.04830381074451754</v>
       </c>
       <c r="E48">
-        <v>0.009538096869776131</v>
+        <v>-0.004382123538687064</v>
       </c>
       <c r="F48">
-        <v>-0.02136390896270475</v>
+        <v>-0.0102187351647151</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2219823764841781</v>
+        <v>-0.2028480086075759</v>
       </c>
       <c r="C49">
-        <v>0.01492844302545155</v>
+        <v>0.01767826795653143</v>
       </c>
       <c r="D49">
-        <v>0.06514091228680971</v>
+        <v>0.01124644178230614</v>
       </c>
       <c r="E49">
-        <v>0.02220627226715731</v>
+        <v>0.03257563981759841</v>
       </c>
       <c r="F49">
-        <v>-0.02920319072309585</v>
+        <v>-0.0326403308039</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0371407988494354</v>
+        <v>-0.04824994765272967</v>
       </c>
       <c r="C50">
-        <v>0.02726619274491089</v>
+        <v>0.0111053346869493</v>
       </c>
       <c r="D50">
-        <v>-0.01179518994839444</v>
+        <v>-0.02680589529129834</v>
       </c>
       <c r="E50">
-        <v>0.0120987764096206</v>
+        <v>0.02960869523883168</v>
       </c>
       <c r="F50">
-        <v>-0.00994396823980508</v>
+        <v>-0.009016888957261132</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01392823828223954</v>
+        <v>-0.002443294718452939</v>
       </c>
       <c r="C51">
-        <v>-0.027701675826311</v>
+        <v>0.000635205289311833</v>
       </c>
       <c r="D51">
-        <v>-0.001670415807874684</v>
+        <v>0.002920829037865785</v>
       </c>
       <c r="E51">
-        <v>-0.008969091456238032</v>
+        <v>-0.0004574356606981341</v>
       </c>
       <c r="F51">
-        <v>-0.009089380053102645</v>
+        <v>-0.005510283663687381</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.09939860105626679</v>
+        <v>-0.1447082885248638</v>
       </c>
       <c r="C52">
-        <v>0.07731997755200974</v>
+        <v>0.0136620745978921</v>
       </c>
       <c r="D52">
-        <v>-0.054082558292559</v>
+        <v>-0.05245156143520098</v>
       </c>
       <c r="E52">
-        <v>0.02295417976714575</v>
+        <v>0.02365793640211263</v>
       </c>
       <c r="F52">
-        <v>-0.03061625439540483</v>
+        <v>-0.03322344766331235</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1590513312321939</v>
+        <v>-0.1740342020503688</v>
       </c>
       <c r="C53">
-        <v>0.04442362814043115</v>
+        <v>0.01655820837888166</v>
       </c>
       <c r="D53">
-        <v>-0.02370612480740918</v>
+        <v>-0.01176885267381821</v>
       </c>
       <c r="E53">
-        <v>-0.01143454284451942</v>
+        <v>0.03550674468693857</v>
       </c>
       <c r="F53">
-        <v>-0.04499047115889375</v>
+        <v>-0.06426612243447673</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04956775782009912</v>
+        <v>-0.02140051730044004</v>
       </c>
       <c r="C54">
-        <v>0.04957860894209834</v>
+        <v>0.01255488047302263</v>
       </c>
       <c r="D54">
-        <v>-0.03746748449620699</v>
+        <v>-0.03343842325754778</v>
       </c>
       <c r="E54">
-        <v>-0.01860515201487403</v>
+        <v>0.0156528646603706</v>
       </c>
       <c r="F54">
-        <v>-0.01837293416836564</v>
+        <v>0.005618898578057712</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08342618380715029</v>
+        <v>-0.1139764101101723</v>
       </c>
       <c r="C55">
-        <v>0.0003030957554576934</v>
+        <v>0.01521428059447546</v>
       </c>
       <c r="D55">
-        <v>-0.07090871190560671</v>
+        <v>-0.01193594769995812</v>
       </c>
       <c r="E55">
-        <v>0.02836172235646309</v>
+        <v>0.03012129489713832</v>
       </c>
       <c r="F55">
-        <v>-0.0299163355571606</v>
+        <v>-0.04417195300171693</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1536336911082709</v>
+        <v>-0.1778089044491012</v>
       </c>
       <c r="C56">
-        <v>0.04407770745788555</v>
+        <v>0.01388481490809727</v>
       </c>
       <c r="D56">
-        <v>-0.0559654409490265</v>
+        <v>-0.00746694140399589</v>
       </c>
       <c r="E56">
-        <v>0.01661193300401711</v>
+        <v>0.03975645877857799</v>
       </c>
       <c r="F56">
-        <v>-0.08034573416556676</v>
+        <v>-0.04034959586911571</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05079011381090678</v>
+        <v>-0.04684415010135413</v>
       </c>
       <c r="C58">
-        <v>0.03708934263468031</v>
+        <v>0.002156443755045014</v>
       </c>
       <c r="D58">
-        <v>-0.01840086389800809</v>
+        <v>-0.06539754915302384</v>
       </c>
       <c r="E58">
-        <v>-0.05142888578607856</v>
+        <v>0.02362486591183723</v>
       </c>
       <c r="F58">
-        <v>-0.02921584132451925</v>
+        <v>0.04388815543756532</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1931823571251471</v>
+        <v>-0.1725310240737589</v>
       </c>
       <c r="C59">
-        <v>-0.2264505748681239</v>
+        <v>0.0164000670550927</v>
       </c>
       <c r="D59">
-        <v>0.09671283383667395</v>
+        <v>0.2247882396794208</v>
       </c>
       <c r="E59">
-        <v>0.02661177808815655</v>
+        <v>-0.04894299781462574</v>
       </c>
       <c r="F59">
-        <v>0.01511823484204418</v>
+        <v>0.03198460562649181</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2394800129934828</v>
+        <v>-0.2367044157371267</v>
       </c>
       <c r="C60">
-        <v>0.1194287964912778</v>
+        <v>-0.003842751993594558</v>
       </c>
       <c r="D60">
-        <v>-0.00106614895535091</v>
+        <v>-0.04696388031883005</v>
       </c>
       <c r="E60">
-        <v>0.0445154068113793</v>
+        <v>0.006959612148525221</v>
       </c>
       <c r="F60">
-        <v>-0.1067962501944083</v>
+        <v>0.02959833782330817</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1069366645194926</v>
+        <v>-0.08320564228784205</v>
       </c>
       <c r="C61">
-        <v>0.02545078879525827</v>
+        <v>0.01375604794074945</v>
       </c>
       <c r="D61">
-        <v>-0.0925083081217996</v>
+        <v>-0.1130687506622779</v>
       </c>
       <c r="E61">
-        <v>0.08772106521483079</v>
+        <v>0.04234703657968166</v>
       </c>
       <c r="F61">
-        <v>-0.05151222116668754</v>
+        <v>-0.01405631611463352</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1521910817838627</v>
+        <v>-0.1702963225112838</v>
       </c>
       <c r="C62">
-        <v>0.03109617033416712</v>
+        <v>0.01780406957439186</v>
       </c>
       <c r="D62">
-        <v>-0.04046772396952023</v>
+        <v>-0.01134144009281086</v>
       </c>
       <c r="E62">
-        <v>0.00255796981896029</v>
+        <v>0.03739879413270868</v>
       </c>
       <c r="F62">
-        <v>-0.05917732156588319</v>
+        <v>-0.02152007650674004</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04039166999373241</v>
+        <v>-0.04264756613616037</v>
       </c>
       <c r="C63">
-        <v>0.006206958463844094</v>
+        <v>0.003172873043629176</v>
       </c>
       <c r="D63">
-        <v>-0.01762686249693573</v>
+        <v>-0.05178199509062503</v>
       </c>
       <c r="E63">
-        <v>0.006446427157367009</v>
+        <v>0.02302352676484112</v>
       </c>
       <c r="F63">
-        <v>0.03387055055534236</v>
+        <v>-0.006451631879415992</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.094893542185278</v>
+        <v>-0.1119746523238088</v>
       </c>
       <c r="C64">
-        <v>0.03458938090993948</v>
+        <v>0.01157297313445538</v>
       </c>
       <c r="D64">
-        <v>-0.0258966191355497</v>
+        <v>-0.04270570405414952</v>
       </c>
       <c r="E64">
-        <v>0.01166501370396322</v>
+        <v>0.02147312348819047</v>
       </c>
       <c r="F64">
-        <v>-0.08013392416064495</v>
+        <v>-0.02416775059112702</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1140282830620829</v>
+        <v>-0.1448922638800705</v>
       </c>
       <c r="C65">
-        <v>0.01342611501711488</v>
+        <v>0.03100186247284213</v>
       </c>
       <c r="D65">
-        <v>-0.02268533065951751</v>
+        <v>0.04343809190721404</v>
       </c>
       <c r="E65">
-        <v>0.008665875707798202</v>
+        <v>5.189908943202674e-06</v>
       </c>
       <c r="F65">
-        <v>0.0560559863087166</v>
+        <v>-0.04590149922801753</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1313910403921928</v>
+        <v>-0.1295507036765564</v>
       </c>
       <c r="C66">
-        <v>0.06129577460760564</v>
+        <v>0.01532757327996258</v>
       </c>
       <c r="D66">
-        <v>-0.1393864191100562</v>
+        <v>-0.141574648927033</v>
       </c>
       <c r="E66">
-        <v>0.1206102130863777</v>
+        <v>0.06832127964610736</v>
       </c>
       <c r="F66">
-        <v>-0.04682407403472451</v>
+        <v>-0.03147370092153816</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05583013708450738</v>
+        <v>-0.06183836866936899</v>
       </c>
       <c r="C67">
-        <v>-0.03102150971231494</v>
+        <v>0.003485441718977733</v>
       </c>
       <c r="D67">
-        <v>-0.06099185477450876</v>
+        <v>-0.05397412237147532</v>
       </c>
       <c r="E67">
-        <v>-0.01952196272628712</v>
+        <v>0.01832734863345603</v>
       </c>
       <c r="F67">
-        <v>-0.007176481273775474</v>
+        <v>0.04142245937394985</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1214197269656955</v>
+        <v>-0.1164506604500641</v>
       </c>
       <c r="C68">
-        <v>-0.2206266178941606</v>
+        <v>0.02606504680983778</v>
       </c>
       <c r="D68">
-        <v>0.1172378288529926</v>
+        <v>0.2633126257458013</v>
       </c>
       <c r="E68">
-        <v>0.02208260485209501</v>
+        <v>-0.08729856571660261</v>
       </c>
       <c r="F68">
-        <v>0.05341917143889427</v>
+        <v>-0.03201023635133059</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03131169525104721</v>
+        <v>-0.03943520380210618</v>
       </c>
       <c r="C69">
-        <v>-0.03189811068896294</v>
+        <v>0.0009846499753076591</v>
       </c>
       <c r="D69">
-        <v>-0.01942559245585784</v>
+        <v>-0.009206121978395241</v>
       </c>
       <c r="E69">
-        <v>-0.005618409767900095</v>
+        <v>0.02418815089920869</v>
       </c>
       <c r="F69">
-        <v>-0.01407782717829235</v>
+        <v>0.0118177049299522</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03221836987846437</v>
+        <v>-0.06269465701578077</v>
       </c>
       <c r="C70">
-        <v>-0.01851147956383536</v>
+        <v>-0.02795611803417481</v>
       </c>
       <c r="D70">
-        <v>-0.03462674018183567</v>
+        <v>-0.02847411756200675</v>
       </c>
       <c r="E70">
-        <v>0.04027635390774865</v>
+        <v>-0.05041623594774287</v>
       </c>
       <c r="F70">
-        <v>-0.04406663170113315</v>
+        <v>0.2791103567972332</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1386637431618668</v>
+        <v>-0.1356332367888494</v>
       </c>
       <c r="C71">
-        <v>-0.2423668462825009</v>
+        <v>0.03012851181432024</v>
       </c>
       <c r="D71">
-        <v>0.123998699443985</v>
+        <v>0.2784229014910923</v>
       </c>
       <c r="E71">
-        <v>0.01363752529700387</v>
+        <v>-0.0957777179512876</v>
       </c>
       <c r="F71">
-        <v>0.01048189039280453</v>
+        <v>-0.03835319532855154</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1447934070506355</v>
+        <v>-0.1407265880682052</v>
       </c>
       <c r="C72">
-        <v>0.02208725482770957</v>
+        <v>0.02458643808127166</v>
       </c>
       <c r="D72">
-        <v>-0.01582978447468573</v>
+        <v>-0.00501821641207957</v>
       </c>
       <c r="E72">
-        <v>-0.0111482658982832</v>
+        <v>0.04526162278995278</v>
       </c>
       <c r="F72">
-        <v>0.009323894600433719</v>
+        <v>-0.02350819677664189</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2192110198254736</v>
+        <v>-0.203670922737457</v>
       </c>
       <c r="C73">
-        <v>-0.0008957088981175282</v>
+        <v>0.01178129588018755</v>
       </c>
       <c r="D73">
-        <v>-0.04607029455685558</v>
+        <v>-0.0159864933568041</v>
       </c>
       <c r="E73">
-        <v>0.06829726908517246</v>
+        <v>0.0617347030395122</v>
       </c>
       <c r="F73">
-        <v>-0.1370428022430858</v>
+        <v>-0.03412231050193051</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1170645868853057</v>
+        <v>-0.09470772771097788</v>
       </c>
       <c r="C74">
-        <v>0.04544053866205715</v>
+        <v>0.01224247749647133</v>
       </c>
       <c r="D74">
-        <v>-0.07715455610383269</v>
+        <v>-0.02037622898184391</v>
       </c>
       <c r="E74">
-        <v>-0.003636004896513269</v>
+        <v>0.04829946300695603</v>
       </c>
       <c r="F74">
-        <v>-0.04271857636888748</v>
+        <v>-0.04682270728448937</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1136025575709648</v>
+        <v>-0.1297080632211355</v>
       </c>
       <c r="C75">
-        <v>0.05160509523040509</v>
+        <v>0.02637717570416336</v>
       </c>
       <c r="D75">
-        <v>-0.03752416585971467</v>
+        <v>-0.03481008439276033</v>
       </c>
       <c r="E75">
-        <v>-0.0003418841308628501</v>
+        <v>0.06085728563708425</v>
       </c>
       <c r="F75">
-        <v>-0.01460523064997954</v>
+        <v>-0.01313462903704811</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02250171264550782</v>
+        <v>-0.003810435701991693</v>
       </c>
       <c r="C76">
-        <v>-0.01963225396011941</v>
+        <v>0.0009015963507158799</v>
       </c>
       <c r="D76">
-        <v>-0.00436870293404139</v>
+        <v>0.002509103132368876</v>
       </c>
       <c r="E76">
-        <v>0.01027341060154241</v>
+        <v>0.0006488990730978426</v>
       </c>
       <c r="F76">
-        <v>-0.01887758478281168</v>
+        <v>-0.00414553710999407</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0626985702927441</v>
+        <v>-0.0782084265702483</v>
       </c>
       <c r="C77">
-        <v>0.04988628044100077</v>
+        <v>0.009688609476130009</v>
       </c>
       <c r="D77">
-        <v>-0.01271615885154795</v>
+        <v>-0.1150243487865149</v>
       </c>
       <c r="E77">
-        <v>-0.002759392495706131</v>
+        <v>0.0372422596857102</v>
       </c>
       <c r="F77">
-        <v>-0.05884365729943083</v>
+        <v>-0.03278439872177172</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1153599033006916</v>
+        <v>-0.1046904330211381</v>
       </c>
       <c r="C78">
-        <v>0.03914768251703114</v>
+        <v>0.04135974663896298</v>
       </c>
       <c r="D78">
-        <v>-0.1104325907625026</v>
+        <v>-0.1146568481133494</v>
       </c>
       <c r="E78">
-        <v>-0.2984797442680812</v>
+        <v>0.0802475004895872</v>
       </c>
       <c r="F78">
-        <v>0.2723493114925262</v>
+        <v>-0.07719788801132668</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1325645179885356</v>
+        <v>-0.1642885998148468</v>
       </c>
       <c r="C79">
-        <v>0.05715353951350375</v>
+        <v>0.02036687832944771</v>
       </c>
       <c r="D79">
-        <v>-0.01462060040394714</v>
+        <v>-0.01985443230185403</v>
       </c>
       <c r="E79">
-        <v>0.009627478546228812</v>
+        <v>0.04906230594374883</v>
       </c>
       <c r="F79">
-        <v>-0.03583750559999638</v>
+        <v>-0.004920070368753015</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07092524291775237</v>
+        <v>-0.08055043162629186</v>
       </c>
       <c r="C80">
-        <v>0.02739157264138898</v>
+        <v>-0.0006029539530124003</v>
       </c>
       <c r="D80">
-        <v>-0.1186840210875289</v>
+        <v>-0.05858282650826228</v>
       </c>
       <c r="E80">
-        <v>0.03749592882461653</v>
+        <v>0.036538246157306</v>
       </c>
       <c r="F80">
-        <v>-0.06383130165154922</v>
+        <v>0.01459463600334557</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1362578877049344</v>
+        <v>-0.1232948495558606</v>
       </c>
       <c r="C81">
-        <v>0.06370630355018533</v>
+        <v>0.03025979613690246</v>
       </c>
       <c r="D81">
-        <v>-0.06022578349196039</v>
+        <v>-0.01917557503132133</v>
       </c>
       <c r="E81">
-        <v>0.001489529096388478</v>
+        <v>0.05996141811056206</v>
       </c>
       <c r="F81">
-        <v>-0.03858673892290664</v>
+        <v>-0.005703648789552412</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1557314405489175</v>
+        <v>-0.1642710416343537</v>
       </c>
       <c r="C82">
-        <v>0.04203908962327776</v>
+        <v>0.02174024330882357</v>
       </c>
       <c r="D82">
-        <v>-0.05397181483855802</v>
+        <v>-0.01573504885510171</v>
       </c>
       <c r="E82">
-        <v>0.03478309362176286</v>
+        <v>0.03584406131422205</v>
       </c>
       <c r="F82">
-        <v>-0.05567647027052534</v>
+        <v>-0.0655444423299574</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08499564280586411</v>
+        <v>-0.06284997192728774</v>
       </c>
       <c r="C83">
-        <v>0.1073493339275779</v>
+        <v>0.003420759657104574</v>
       </c>
       <c r="D83">
-        <v>-0.09824070615663577</v>
+        <v>-0.04995959634108622</v>
       </c>
       <c r="E83">
-        <v>-0.03248625911796981</v>
+        <v>0.004767588500564854</v>
       </c>
       <c r="F83">
-        <v>-0.01406390287698751</v>
+        <v>0.04175499890393935</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05590231932535718</v>
+        <v>-0.05938612572861049</v>
       </c>
       <c r="C84">
-        <v>-0.05789954544232823</v>
+        <v>0.011156341274247</v>
       </c>
       <c r="D84">
-        <v>0.06450678474563183</v>
+        <v>-0.06399891977833626</v>
       </c>
       <c r="E84">
-        <v>0.05378700588902252</v>
+        <v>0.002683531928237924</v>
       </c>
       <c r="F84">
-        <v>-0.008032848303423438</v>
+        <v>-0.01084714712298114</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1232476208551829</v>
+        <v>-0.1388953866167234</v>
       </c>
       <c r="C85">
-        <v>0.04168325603670754</v>
+        <v>0.02603999573707879</v>
       </c>
       <c r="D85">
-        <v>-0.03430908531590796</v>
+        <v>-0.01558430356594956</v>
       </c>
       <c r="E85">
-        <v>0.00626312229005536</v>
+        <v>0.04174487606275169</v>
       </c>
       <c r="F85">
-        <v>-0.05604467324042756</v>
+        <v>-0.04554552186318814</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1732717556501188</v>
+        <v>-0.09525044553737677</v>
       </c>
       <c r="C86">
-        <v>0.5715517852450738</v>
+        <v>-0.006806012749174319</v>
       </c>
       <c r="D86">
-        <v>0.7395445513648228</v>
+        <v>-0.02494671732411603</v>
       </c>
       <c r="E86">
-        <v>0.002802543986099336</v>
+        <v>0.1494401249569505</v>
       </c>
       <c r="F86">
-        <v>0.07407992194627512</v>
+        <v>0.8660760946850529</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1163635397869807</v>
+        <v>-0.09828169406608919</v>
       </c>
       <c r="C87">
-        <v>0.08354794487642923</v>
+        <v>0.02534636831627896</v>
       </c>
       <c r="D87">
-        <v>-0.05956249749527598</v>
+        <v>-0.07709903633709318</v>
       </c>
       <c r="E87">
-        <v>0.001266178637640773</v>
+        <v>-0.05339903711974248</v>
       </c>
       <c r="F87">
-        <v>-0.04636812611763918</v>
+        <v>-0.07680493212212525</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05220124313957498</v>
+        <v>-0.0610718385535892</v>
       </c>
       <c r="C88">
-        <v>0.02182530857225346</v>
+        <v>0.002935628724554997</v>
       </c>
       <c r="D88">
-        <v>-0.05451990056582288</v>
+        <v>-0.05374759780316882</v>
       </c>
       <c r="E88">
-        <v>0.05990856628800718</v>
+        <v>0.02779656547887912</v>
       </c>
       <c r="F88">
-        <v>-0.02198649301071648</v>
+        <v>-0.008159381597033413</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1916642520191466</v>
+        <v>-0.1358669780130497</v>
       </c>
       <c r="C89">
-        <v>-0.3187514094113137</v>
+        <v>0.008392912644572478</v>
       </c>
       <c r="D89">
-        <v>0.1781256803793735</v>
+        <v>0.2558357085194561</v>
       </c>
       <c r="E89">
-        <v>-0.06642430987360744</v>
+        <v>-0.09201423271633158</v>
       </c>
       <c r="F89">
-        <v>0.02326682094233959</v>
+        <v>-0.01928153093985134</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1510765337362089</v>
+        <v>-0.1466959511544758</v>
       </c>
       <c r="C90">
-        <v>-0.2272168644009763</v>
+        <v>0.02576065620114643</v>
       </c>
       <c r="D90">
-        <v>0.1196207999969043</v>
+        <v>0.2662515815758044</v>
       </c>
       <c r="E90">
-        <v>0.02993426066737855</v>
+        <v>-0.108633986191669</v>
       </c>
       <c r="F90">
-        <v>0.005839957808417339</v>
+        <v>-0.02241735358068147</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.079833230645769</v>
+        <v>-0.118927414455079</v>
       </c>
       <c r="C91">
-        <v>0.04252968972354738</v>
+        <v>0.0167008170143397</v>
       </c>
       <c r="D91">
-        <v>-0.01029650082309052</v>
+        <v>0.007922947787938495</v>
       </c>
       <c r="E91">
-        <v>0.003771325674012733</v>
+        <v>0.05744389782854113</v>
       </c>
       <c r="F91">
-        <v>-0.03343007872535714</v>
+        <v>0.01858319526379442</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1662512680649324</v>
+        <v>-0.1497669471298245</v>
       </c>
       <c r="C92">
-        <v>-0.2715571621361928</v>
+        <v>0.01764027569736615</v>
       </c>
       <c r="D92">
-        <v>0.1437520402358082</v>
+        <v>0.2965831798955638</v>
       </c>
       <c r="E92">
-        <v>-0.03404628622112012</v>
+        <v>-0.1042293076475572</v>
       </c>
       <c r="F92">
-        <v>0.02743737583179834</v>
+        <v>-0.01677192441849928</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.153788718676946</v>
+        <v>-0.1514176942060337</v>
       </c>
       <c r="C93">
-        <v>-0.264347142051194</v>
+        <v>0.02232755736441209</v>
       </c>
       <c r="D93">
-        <v>0.1753020522163508</v>
+        <v>0.2690436720751113</v>
       </c>
       <c r="E93">
-        <v>0.05583878511414413</v>
+        <v>-0.07491808260236256</v>
       </c>
       <c r="F93">
-        <v>0.01253338089986939</v>
+        <v>-0.0160185407828733</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1331159113662803</v>
+        <v>-0.1330392802974165</v>
       </c>
       <c r="C94">
-        <v>0.02215822969611989</v>
+        <v>0.0237202940182361</v>
       </c>
       <c r="D94">
-        <v>-0.0616399928473462</v>
+        <v>-0.04609088933796685</v>
       </c>
       <c r="E94">
-        <v>-0.01933871821578262</v>
+        <v>0.0611556750878231</v>
       </c>
       <c r="F94">
-        <v>-0.03290873332557234</v>
+        <v>-0.03102773145068565</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1118819811029514</v>
+        <v>-0.1251982239401582</v>
       </c>
       <c r="C95">
-        <v>0.02196290631065493</v>
+        <v>0.005251843133116789</v>
       </c>
       <c r="D95">
-        <v>-0.05185006046780357</v>
+        <v>-0.09054629839149864</v>
       </c>
       <c r="E95">
-        <v>-0.03750223342907615</v>
+        <v>0.04398562927087352</v>
       </c>
       <c r="F95">
-        <v>-0.05433955949373337</v>
+        <v>0.01487119178042579</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01234083475358851</v>
+        <v>-0.09895857224413256</v>
       </c>
       <c r="C96">
-        <v>0.00160366726848623</v>
+        <v>-0.9888938906565717</v>
       </c>
       <c r="D96">
-        <v>-0.002143670213499515</v>
+        <v>0.02967330454638911</v>
       </c>
       <c r="E96">
-        <v>-0.008945516158921446</v>
+        <v>0.05808059892759429</v>
       </c>
       <c r="F96">
-        <v>0.005980673318219222</v>
+        <v>-0.0470039806375416</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1766025520939698</v>
+        <v>-0.1882659615710591</v>
       </c>
       <c r="C97">
-        <v>0.07689987017433252</v>
+        <v>-0.01080068109835546</v>
       </c>
       <c r="D97">
-        <v>-0.1735914106855957</v>
+        <v>0.006914651389441227</v>
       </c>
       <c r="E97">
-        <v>-0.09775017964217828</v>
+        <v>0.01847119222312503</v>
       </c>
       <c r="F97">
-        <v>0.8555231501472658</v>
+        <v>0.170429964474893</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2445445750920354</v>
+        <v>-0.2052351295351353</v>
       </c>
       <c r="C98">
-        <v>0.06170721382468976</v>
+        <v>0.007073930889249637</v>
       </c>
       <c r="D98">
-        <v>-0.002080798386550121</v>
+        <v>-0.01065375917162437</v>
       </c>
       <c r="E98">
-        <v>-0.07100319472669367</v>
+        <v>-0.09902258858517268</v>
       </c>
       <c r="F98">
-        <v>-0.0333932670052574</v>
+        <v>0.1096915103524209</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04400466410452272</v>
+        <v>-0.0560110158588045</v>
       </c>
       <c r="C99">
-        <v>-0.02578340636122638</v>
+        <v>-0.003892987498165052</v>
       </c>
       <c r="D99">
-        <v>-0.03437122270099505</v>
+        <v>-0.0360937382750702</v>
       </c>
       <c r="E99">
-        <v>-0.02319779035913332</v>
+        <v>0.02666833244381251</v>
       </c>
       <c r="F99">
-        <v>-0.02489006442210862</v>
+        <v>-0.003649989331854954</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.02330074442485692</v>
+        <v>-0.122749991552527</v>
       </c>
       <c r="C100">
-        <v>-0.01238314751392647</v>
+        <v>-0.05024847926636763</v>
       </c>
       <c r="D100">
-        <v>-0.1385828035838921</v>
+        <v>-0.3484823159390403</v>
       </c>
       <c r="E100">
-        <v>0.05213600469385055</v>
+        <v>-0.8943317973190217</v>
       </c>
       <c r="F100">
-        <v>0.03464822528674733</v>
+        <v>0.06983774604793812</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03244830838171569</v>
+        <v>-0.0270935649250566</v>
       </c>
       <c r="C101">
-        <v>0.009802841219280926</v>
+        <v>0.008714173558909242</v>
       </c>
       <c r="D101">
-        <v>-0.02706039824617587</v>
+        <v>-0.03088261613541236</v>
       </c>
       <c r="E101">
-        <v>0.03487857734017093</v>
+        <v>0.0114478071210631</v>
       </c>
       <c r="F101">
-        <v>-0.0466694339153191</v>
+        <v>0.01353285171577139</v>
       </c>
     </row>
     <row r="102" spans="1:6">
